--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250927_124701.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250927_124701.xlsx
@@ -7703,7 +7703,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
